--- a/doc/Bericht/05_Technischer Bericht/05_Domain Analyse/Auswertung_formativer_empirischer_Test.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/05_Domain Analyse/Auswertung_formativer_empirischer_Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>Testperson zögerte bei der Bearbeitung der Aufgabe</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Gar nicht</t>
   </si>
   <si>
-    <t>Kaum</t>
-  </si>
-  <si>
     <t>Mittelmässig</t>
   </si>
   <si>
@@ -49,12 +46,6 @@
     <t>Gut</t>
   </si>
   <si>
-    <t>Schlecht</t>
-  </si>
-  <si>
-    <t>Sehr schlecht</t>
-  </si>
-  <si>
     <t>Auswertung empirischer formativer Test</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>Mr. Raper</t>
   </si>
   <si>
-    <t>Merkte sofort, dass er das Skelett ist</t>
-  </si>
-  <si>
     <t>Schaltfläche mit Bewegung der Hand nach vorne oder Faust betätigen</t>
   </si>
   <si>
@@ -97,13 +85,46 @@
     <t>Bewegung nach vorne</t>
   </si>
   <si>
-    <t>Poster vergrössern mit</t>
-  </si>
-  <si>
-    <t>Zoomgeste</t>
-  </si>
-  <si>
-    <t>Videos/Bilder auf Poster anklicken</t>
+    <t>Merkte … schnell, dass das Skelett seine Bewegungen imitiert</t>
+  </si>
+  <si>
+    <t>keine Klickgeste</t>
+  </si>
+  <si>
+    <t>Möchte gerne wischen, um zum nächsten Element zu kommen.</t>
+  </si>
+  <si>
+    <t>Weiteres</t>
+  </si>
+  <si>
+    <t>Möchte seine linke Hand tracken lassen.</t>
+  </si>
+  <si>
+    <t>hat sich sogleich nach Skelett justiert</t>
+  </si>
+  <si>
+    <t>Positionierte sich von Anfang an korrekt</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>Möchte Poster vergrössern mit Zoomgeste</t>
+  </si>
+  <si>
+    <t>nein, steht zu Beginn zu nahe an der Wand</t>
+  </si>
+  <si>
+    <t>Fragt sich, was das Mittagsmenü mit den Postern zu tun hat. Nach Erklärung von unserer Seite schlägt er vor, z.B. auch Zugabfahrtszeiten anzuzeigen.</t>
+  </si>
+  <si>
+    <t>Möchte Videos/Bilder auf Poster oder Poster insgesamt anklicken</t>
+  </si>
+  <si>
+    <t>Kann sich auch vorstellen, dass das Poster grösser wird, wenn er näher zur Wand geht.</t>
+  </si>
+  <si>
+    <t>Kann sich vorstellen, auch mit Doppelklick oder über Zoomleiste (Slider) zu zoomen. Möchte gerne wischen, um zum nächsten Element zu kommen.</t>
   </si>
 </sst>
 </file>
@@ -199,7 +220,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -207,33 +228,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -242,14 +239,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -260,32 +275,131 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -402,14 +516,14 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:H13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="8">
-    <tableColumn id="1" name="Testperson:" dataDxfId="7"/>
-    <tableColumn id="2" name="Florian Bentele" dataDxfId="6"/>
-    <tableColumn id="3" name="Andreas Sonderegger" dataDxfId="5"/>
-    <tableColumn id="5" name="Fabio Schnellmann" dataDxfId="4"/>
-    <tableColumn id="4" name="Lukas Lenacher" dataDxfId="3"/>
-    <tableColumn id="6" name="Reto Kluser" dataDxfId="2"/>
-    <tableColumn id="7" name="Raffael Nestler" dataDxfId="1"/>
-    <tableColumn id="8" name="Mr. Raper" dataDxfId="0"/>
+    <tableColumn id="1" name="Testperson:" dataDxfId="0"/>
+    <tableColumn id="2" name="Florian Bentele" dataDxfId="1"/>
+    <tableColumn id="3" name="Andreas Sonderegger" dataDxfId="7"/>
+    <tableColumn id="5" name="Fabio Schnellmann" dataDxfId="6"/>
+    <tableColumn id="4" name="Lukas Lenacher" dataDxfId="5"/>
+    <tableColumn id="6" name="Reto Kluser" dataDxfId="4"/>
+    <tableColumn id="7" name="Raffael Nestler" dataDxfId="3"/>
+    <tableColumn id="8" name="Mr. Raper" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -702,271 +816,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="19" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="8" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="10"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="15" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="C10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="D10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>4</v>
-      </c>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="A24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/Bericht/05_Technischer Bericht/05_Domain Analyse/Auswertung_formativer_empirischer_Test.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/05_Domain Analyse/Auswertung_formativer_empirischer_Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
   <si>
     <t>Testperson zögerte bei der Bearbeitung der Aufgabe</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Möchte seine linke Hand tracken lassen.</t>
   </si>
   <si>
-    <t>hat sich sogleich nach Skelett justiert</t>
-  </si>
-  <si>
     <t>Positionierte sich von Anfang an korrekt</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>Möchte Poster vergrössern mit Zoomgeste</t>
   </si>
   <si>
-    <t>nein, steht zu Beginn zu nahe an der Wand</t>
-  </si>
-  <si>
     <t>Fragt sich, was das Mittagsmenü mit den Postern zu tun hat. Nach Erklärung von unserer Seite schlägt er vor, z.B. auch Zugabfahrtszeiten anzuzeigen.</t>
   </si>
   <si>
@@ -125,6 +119,15 @@
   </si>
   <si>
     <t>Kann sich vorstellen, auch mit Doppelklick oder über Zoomleiste (Slider) zu zoomen. Möchte gerne wischen, um zum nächsten Element zu kommen.</t>
+  </si>
+  <si>
+    <t>Kaum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nein, aber justierte sich sogleich nach Skelett </t>
+  </si>
+  <si>
+    <t>nein, stand zu Beginn zu nahe an der Wand</t>
   </si>
 </sst>
 </file>
@@ -239,39 +242,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent4" xfId="3" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="2" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="3" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="2" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -286,8 +289,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -301,7 +303,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -372,6 +373,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -386,7 +388,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -516,23 +519,23 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:H13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="8">
-    <tableColumn id="1" name="Testperson:" dataDxfId="0"/>
-    <tableColumn id="2" name="Florian Bentele" dataDxfId="1"/>
-    <tableColumn id="3" name="Andreas Sonderegger" dataDxfId="7"/>
-    <tableColumn id="5" name="Fabio Schnellmann" dataDxfId="6"/>
-    <tableColumn id="4" name="Lukas Lenacher" dataDxfId="5"/>
-    <tableColumn id="6" name="Reto Kluser" dataDxfId="4"/>
-    <tableColumn id="7" name="Raffael Nestler" dataDxfId="3"/>
-    <tableColumn id="8" name="Mr. Raper" dataDxfId="2"/>
+    <tableColumn id="1" name="Testperson:" dataDxfId="7"/>
+    <tableColumn id="2" name="Florian Bentele" dataDxfId="6"/>
+    <tableColumn id="3" name="Andreas Sonderegger" dataDxfId="5"/>
+    <tableColumn id="5" name="Fabio Schnellmann" dataDxfId="4"/>
+    <tableColumn id="4" name="Lukas Lenacher" dataDxfId="3"/>
+    <tableColumn id="6" name="Reto Kluser" dataDxfId="2"/>
+    <tableColumn id="7" name="Raffael Nestler" dataDxfId="1"/>
+    <tableColumn id="8" name="Mr. Raper" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -570,7 +573,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -642,7 +645,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -819,10 +822,10 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="19" style="5" customWidth="1"/>
@@ -834,12 +837,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -879,261 +882,261 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="E4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>5</v>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="E11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">

--- a/doc/Bericht/05_Technischer Bericht/05_Domain Analyse/Auswertung_formativer_empirischer_Test.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/05_Domain Analyse/Auswertung_formativer_empirischer_Test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="30" windowWidth="12390" windowHeight="11955"/>
@@ -271,10 +271,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20 % - Akzent4" xfId="3" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="2" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="3" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="2" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -533,9 +533,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -573,7 +573,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -645,7 +645,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -825,7 +825,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="19" style="5" customWidth="1"/>
@@ -836,7 +836,7 @@
     <col min="7" max="8" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
